--- a/result_HEPES.xlsx
+++ b/result_HEPES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB9681-6F82-4481-80AA-E6013A3DBB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A59B79-3FA1-4A95-A13F-B91DFB1159AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1898" yWindow="1898" windowWidth="18851" windowHeight="11023" firstSheet="2" activeTab="8" xr2:uid="{47E7848B-34EC-49A6-998D-9AC1D627B3A3}"/>
+    <workbookView xWindow="52335" yWindow="735" windowWidth="21600" windowHeight="15435" firstSheet="4" activeTab="4" xr2:uid="{47E7848B-34EC-49A6-998D-9AC1D627B3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="19817002" sheetId="5" r:id="rId5"/>
     <sheet name="19814003" sheetId="6" r:id="rId6"/>
     <sheet name="19815002" sheetId="7" r:id="rId7"/>
-    <sheet name="19815005" sheetId="8" r:id="rId8"/>
-    <sheet name="19815003" sheetId="9" r:id="rId9"/>
+    <sheet name="19815003" sheetId="9" r:id="rId8"/>
+    <sheet name="19815005" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -493,7 +493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -507,9 +507,9 @@
       <selection activeCell="A40" sqref="A40:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -713,12 +713,12 @@
         <v>-0.45238095238095238</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -758,7 +758,7 @@
         <v>6.9944429386484559E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -772,7 +772,7 @@
         <v>433.28301271125804</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -783,12 +783,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4.639545227236308E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0.74880708738790736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -859,12 +859,12 @@
         <v>7.4209148172221795E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -904,7 +904,7 @@
         <v>2.3086057016801487E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -918,7 +918,7 @@
         <v>7338647277.6300125</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -929,12 +929,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -945,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -965,7 +965,7 @@
         <v>7.2881588095692007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2.1553413097430418E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1005,12 +1005,12 @@
         <v>0.29819585477497634</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.32450041998049328</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>28.650156816093016</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1075,12 +1075,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0.32530873961456097</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0.989497227549061</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1164,9 +1164,9 @@
       <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1349,12 +1349,12 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1.683076482848523E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>2381.235027662583</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1419,12 +1419,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1455,12 +1455,12 @@
         <v>1.6830764878205784E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1.2036089420310528E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>49.704486805859325</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1525,12 +1525,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1561,12 +1561,12 @@
         <v>1.2036279927851723E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0.10075410325923219</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>97.617617485184653</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1631,12 +1631,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1680,9 +1680,9 @@
       <selection activeCell="A40" sqref="A40:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1886,12 +1886,12 @@
         <v>-2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1.9903641749786406E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>395.35196314979925</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1956,12 +1956,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>9.8198191374104793E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.37433512144356096</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2032,12 +2032,12 @@
         <v>3.1860685962358248E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>9.0839134355448069E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>2340.3052131732447</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2102,12 +2102,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1.4730300328457124E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>7.5559272750518325E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2178,12 +2178,12 @@
         <v>0.99996787171359836</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0.14973521947288695</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>4.2717890961167333</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -2248,12 +2248,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0.99883024646781315</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.16912685268863714</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2333,13 +2333,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C50F9E-615A-4F55-B45F-45A40CACC374}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0.64904337707197546</v>
       </c>
       <c r="H3">
-        <v>5.9000619379140917E-2</v>
+        <v>5.9000619379140903E-2</v>
       </c>
       <c r="I3">
         <v>16.689834594726563</v>
@@ -2453,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2552,12 +2552,12 @@
         <v>-0.61428571428571432</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>8.459419243360085E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>864.4552283702966</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2622,12 +2622,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>9.8833528361375045E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.97804238220455442</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2698,12 +2698,12 @@
         <v>3.8268785130801675E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>6.3941344160138854E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>3555544053.1558356</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2768,12 +2768,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>4.4937214560558658E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>6.0003862744295589E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2844,12 +2844,12 @@
         <v>8.5545202531357556E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0.17097131650251551</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>39.526450450637476</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -2914,12 +2914,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.23501825230249329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0.98281974124017901</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2999,13 +2999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607F066-ED3D-435B-B108-784FB82A37D7}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3218,12 +3218,12 @@
         <v>-0.9609375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1.0340308168866726E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>733.90185420067667</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3288,12 +3288,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1.7420362750097951E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0.26178978752167992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3364,12 +3364,12 @@
         <v>5.2256934836991675E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>6.5958235677610627E-12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>5685310042.3438368</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3434,12 +3434,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>9.8121266667305918E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>6.6797287561667473E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3510,12 +3510,12 @@
         <v>2.8139255481285375E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>1.5519933593333283E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>24.726407272298111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -3580,12 +3580,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2.9426910189032984E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0.96810223321736011</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3658,6 +3658,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3665,13 +3666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B5F74-E022-42BB-A231-C84D7ABD4D3A}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3884,12 +3885,12 @@
         <v>0.50802139037433158</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>5.7242031987585656E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>388.86514923148297</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3954,12 +3955,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>9.5805785527147691E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>0.89205331000165278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4030,12 +4031,12 @@
         <v>9.9965657973655198E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>2.223870095252735E-18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>7212432212.6057644</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4100,12 +4101,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>9.5720897874684852E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>3.9926556371110311E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4176,12 +4177,12 @@
         <v>9.5720764647921897E-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>3.6635768581173074E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>54.588284297163739</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4246,12 +4247,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>0.12140136476780927</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>0.86172751648393708</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4324,20 +4325,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668D65C-DB8D-433F-8129-3B7BD7821F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2CD437-D419-45AB-94CA-753A7C98FE89}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4375,121 +4377,121 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17.175552000000152</v>
+        <v>27.444863999999939</v>
       </c>
       <c r="C2">
-        <v>2.0131439999998975</v>
+        <v>5.613383999999968</v>
       </c>
       <c r="D2">
-        <v>6.8609661425390045E-2</v>
+        <v>6.4523426399020964E-2</v>
       </c>
       <c r="E2">
-        <v>139885.99057047383</v>
+        <v>491341.04505010281</v>
       </c>
       <c r="F2">
-        <v>18332.954659426701</v>
+        <v>33380.877392118447</v>
       </c>
       <c r="G2">
-        <v>0.61925873411965437</v>
+        <v>0.72818234726876363</v>
       </c>
       <c r="H2">
-        <v>2.0946880363637232E-2</v>
+        <v>7.7812617320227595E-4</v>
       </c>
       <c r="I2">
-        <v>16.5308837890625</v>
+        <v>16.212982177734375</v>
       </c>
       <c r="J2">
-        <v>1.8279342651367188</v>
+        <v>2.543212890625</v>
       </c>
       <c r="K2">
-        <v>0.97157897392723247</v>
+        <v>8.4387554765302884E-4</v>
       </c>
       <c r="L2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>124.84464000000025</v>
+        <v>72.02025599999979</v>
       </c>
       <c r="C3">
-        <v>25.403778500000385</v>
+        <v>23.174399000000108</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0572288183505787E-3</v>
       </c>
       <c r="E3">
-        <v>68016.958347253501</v>
+        <v>265772.33721489867</v>
       </c>
       <c r="F3">
-        <v>15334.664988158955</v>
+        <v>111825.49796310344</v>
       </c>
       <c r="G3">
-        <v>5.0000000000000001E-4</v>
+        <v>0.63994336008279118</v>
       </c>
       <c r="H3">
-        <v>0.27692246001814746</v>
+        <v>0.262004395827096</v>
       </c>
       <c r="I3">
-        <v>13.35186767578125</v>
+        <v>16.212982177734375</v>
       </c>
       <c r="J3">
-        <v>7.7091140747070313</v>
+        <v>1.1921310424804688</v>
       </c>
       <c r="K3">
-        <v>0.11745084484613731</v>
+        <v>1.1648998367073551E-3</v>
       </c>
       <c r="L3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24.374737000000096</v>
+        <v>27.210095999999794</v>
       </c>
       <c r="C4">
-        <v>10.884527999999136</v>
+        <v>3.8358719999996538</v>
       </c>
       <c r="D4">
-        <v>0.20350523179017882</v>
+        <v>0.25188533704788679</v>
       </c>
       <c r="E4">
-        <v>101629.51420971131</v>
+        <v>525401.60902117344</v>
       </c>
       <c r="F4">
-        <v>41271.030157505797</v>
+        <v>89780.750122830388</v>
       </c>
       <c r="G4">
-        <v>0.63117012972672559</v>
+        <v>0.99</v>
       </c>
       <c r="H4">
-        <v>6.3660959619171731E-3</v>
+        <v>2.1441635404497839E-2</v>
       </c>
       <c r="I4">
-        <v>14.62347412109375</v>
+        <v>9.53704833984375</v>
       </c>
       <c r="J4">
-        <v>5.8811798095703125</v>
+        <v>13.35186767578125</v>
       </c>
       <c r="K4">
-        <v>2.2533897566665477E-3</v>
+        <v>0.26945123915710578</v>
       </c>
       <c r="L4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -4518,12 +4520,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>9.670802102524637E-6</v>
+        <v>4.488653224853145E-4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4532,30 +4534,30 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>3.1275875691518369E-4</v>
+        <v>4.488653224853145E-4</v>
       </c>
       <c r="F6">
-        <v>0.84615384615384615</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.82905982905982911</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>9.9711088218520458E-3</v>
+        <v>0.99999517966571738</v>
       </c>
       <c r="J6">
-        <v>0.65811965811965822</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="K6">
-        <v>0.70940170940170943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4575,57 +4577,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
-        <v>135198.1807528327</v>
+        <v>17963.491559048332</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>67599.090376416352</v>
+        <v>8981.7457795241662</v>
       </c>
       <c r="E10">
-        <v>24.395149854515317</v>
+        <v>18.091710386686856</v>
       </c>
       <c r="F10">
-        <v>8.3069358221642704E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.1619412748581604E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
-        <v>119153.22937226755</v>
+        <v>8439.7591487132449</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>2771.0053342387805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>496.45642051254384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
-        <v>254351.41012510026</v>
+        <v>26403.250707761577</v>
       </c>
       <c r="C12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4644,19 +4646,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-182.33185075952923</v>
+        <v>-93.813799666654575</v>
       </c>
       <c r="D16">
-        <v>-126.92217282051286</v>
+        <v>-63.260763142857236</v>
       </c>
       <c r="E16">
-        <v>-71.512494881496465</v>
+        <v>-32.707726619059898</v>
       </c>
       <c r="F16">
-        <v>4.6964777494773458E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.615315120682137E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4664,19 +4666,19 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-59.257987408183936</v>
+        <v>-32.73758694173204</v>
       </c>
       <c r="D17">
-        <v>-9.3123786666665893</v>
+        <v>-0.93697828571411179</v>
       </c>
       <c r="E17">
-        <v>40.633230074850758</v>
+        <v>30.863630370303817</v>
       </c>
       <c r="F17">
-        <v>0.89351651799291665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.99685569528648177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4684,24 +4686,24 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>73.605933435250819</v>
+        <v>30.523176201125196</v>
       </c>
       <c r="D18">
-        <v>117.60979415384628</v>
+        <v>62.323784857143124</v>
       </c>
       <c r="E18">
-        <v>161.61365487244174</v>
+        <v>94.124393513161053</v>
       </c>
       <c r="F18">
-        <v>2.1296171992535307E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.8968863959788482E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4721,57 +4723,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>24034948488.714642</v>
+        <v>289236288342.3244</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>12017474244.357321</v>
+        <v>144618144171.1622</v>
       </c>
       <c r="E22">
-        <v>12.822862146015577</v>
+        <v>36.185666330194373</v>
       </c>
       <c r="F22">
-        <v>4.2892535911526279E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.4753381515622347E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>40299223888.009583</v>
+        <v>67941500053.525513</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>937191253.20952523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3996558826.6779714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>64334172376.724228</v>
+        <v>357177788395.84991</v>
       </c>
       <c r="C24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4790,19 +4792,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>34880.321544826787</v>
+        <v>149480.84166149556</v>
       </c>
       <c r="D28">
-        <v>67104.440964130961</v>
+        <v>236168.42947153654</v>
       </c>
       <c r="E28">
-        <v>99328.560383435135</v>
+        <v>322856.01728157751</v>
       </c>
       <c r="F28">
-        <v>2.485290568643439E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.2477710582875545E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4810,19 +4812,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>7850.8226663400419</v>
+        <v>-121763.19639859103</v>
       </c>
       <c r="D29">
-        <v>36897.251384584059</v>
+        <v>-31535.89433864248</v>
       </c>
       <c r="E29">
-        <v>65943.680102828075</v>
+        <v>58691.407721306066</v>
       </c>
       <c r="F29">
-        <v>9.7827613466153762E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.64965073670167106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4830,24 +4832,24 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-55798.128120411115</v>
+        <v>-357931.62587012758</v>
       </c>
       <c r="D30">
-        <v>-30207.189579546903</v>
+        <v>-267704.32381017902</v>
       </c>
       <c r="E30">
-        <v>-4616.2510386826871</v>
+        <v>-177477.02175023046</v>
       </c>
       <c r="F30">
-        <v>1.7303748447174527E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.0527594930541682E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4867,57 +4869,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34">
-        <v>126.10694411427166</v>
+        <v>93.853829226532</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>63.053472057135828</v>
+        <v>46.926914613266</v>
       </c>
       <c r="E34">
-        <v>2.8742741135247045</v>
+        <v>1.50097155507667</v>
       </c>
       <c r="F34">
-        <v>6.7358984895593832E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.25101648055296644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
-        <v>943.29879175371718</v>
+        <v>531.49411507986395</v>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>21.93718120357482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31.264359710580234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36">
-        <v>1069.4057358679888</v>
+        <v>625.3479443063959</v>
       </c>
       <c r="C36">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4936,19 +4938,19 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>-0.24582465114163909</v>
+        <v>-8.9842525762190935</v>
       </c>
       <c r="D40">
-        <v>4.6842938284588698</v>
+        <v>-1.3170209612165173</v>
       </c>
       <c r="E40">
-        <v>9.6144123080593786</v>
+        <v>6.3502106537860588</v>
       </c>
       <c r="F40">
-        <v>6.5595213808134822E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.89911838620036455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4956,19 +4958,19 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>-0.7704190121752692</v>
+        <v>-4.0670902277617964</v>
       </c>
       <c r="D41">
-        <v>3.6735297309027803</v>
+        <v>3.9132174537295388</v>
       </c>
       <c r="E41">
-        <v>8.1174784739808299</v>
+        <v>11.893525135220873</v>
       </c>
       <c r="F41">
-        <v>0.12279989996714125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.43697149160760929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4976,16 +4978,16 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>-4.9260412652249244</v>
+        <v>-2.7500692665452791</v>
       </c>
       <c r="D42">
-        <v>-1.0107640975560894</v>
+        <v>5.2302384149460561</v>
       </c>
       <c r="E42">
-        <v>2.904513070112746</v>
+        <v>13.21054609643739</v>
       </c>
       <c r="F42">
-        <v>0.80634308448796177</v>
+        <v>0.24078863906859926</v>
       </c>
     </row>
   </sheetData>
@@ -4994,16 +4996,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2CD437-D419-45AB-94CA-753A7C98FE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668D65C-DB8D-433F-8129-3B7BD7821F7F}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5041,121 +5043,121 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>27.444863999999939</v>
+        <v>17.175552000000152</v>
       </c>
       <c r="C2">
-        <v>5.613383999999968</v>
+        <v>2.0131439999998975</v>
       </c>
       <c r="D2">
-        <v>6.4523426399020964E-2</v>
+        <v>6.8609661425390045E-2</v>
       </c>
       <c r="E2">
-        <v>491341.04505010281</v>
+        <v>139885.99057047383</v>
       </c>
       <c r="F2">
-        <v>33380.877392118447</v>
+        <v>18332.954659426701</v>
       </c>
       <c r="G2">
-        <v>0.72818234726876363</v>
+        <v>0.61925873411965437</v>
       </c>
       <c r="H2">
-        <v>7.7812617320227595E-4</v>
+        <v>2.0946880363637232E-2</v>
       </c>
       <c r="I2">
-        <v>16.212982177734375</v>
+        <v>16.5308837890625</v>
       </c>
       <c r="J2">
-        <v>2.543212890625</v>
+        <v>1.8279342651367188</v>
       </c>
       <c r="K2">
-        <v>8.4387554765302884E-4</v>
+        <v>0.97157897392723247</v>
       </c>
       <c r="L2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>72.02025599999979</v>
+        <v>124.84464000000025</v>
       </c>
       <c r="C3">
-        <v>23.174399000000108</v>
+        <v>25.403778500000385</v>
       </c>
       <c r="D3">
-        <v>5.0572288183505787E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E3">
-        <v>265772.33721489867</v>
+        <v>68016.958347253501</v>
       </c>
       <c r="F3">
-        <v>111825.49796310344</v>
+        <v>15334.664988158955</v>
       </c>
       <c r="G3">
-        <v>0.63994336008279118</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3">
-        <v>0.26200439582709589</v>
+        <v>0.27692246001814702</v>
       </c>
       <c r="I3">
-        <v>16.212982177734375</v>
+        <v>13.35186767578125</v>
       </c>
       <c r="J3">
-        <v>1.1921310424804688</v>
+        <v>7.7091140747070313</v>
       </c>
       <c r="K3">
-        <v>1.1648998367073551E-3</v>
+        <v>0.11745084484613731</v>
       </c>
       <c r="L3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>27.210095999999794</v>
+        <v>24.374737000000096</v>
       </c>
       <c r="C4">
-        <v>3.8358719999996538</v>
+        <v>10.884527999999136</v>
       </c>
       <c r="D4">
-        <v>0.25188533704788679</v>
+        <v>0.20350523179017882</v>
       </c>
       <c r="E4">
-        <v>525401.60902117344</v>
+        <v>101629.51420971131</v>
       </c>
       <c r="F4">
-        <v>89780.750122830388</v>
+        <v>41271.030157505797</v>
       </c>
       <c r="G4">
-        <v>0.99</v>
+        <v>0.63117012972672559</v>
       </c>
       <c r="H4">
-        <v>2.1441635404497839E-2</v>
+        <v>6.3660959619171731E-3</v>
       </c>
       <c r="I4">
-        <v>9.53704833984375</v>
+        <v>14.62347412109375</v>
       </c>
       <c r="J4">
-        <v>13.35186767578125</v>
+        <v>5.8811798095703125</v>
       </c>
       <c r="K4">
-        <v>0.26945123915710578</v>
+        <v>2.2533897566665477E-3</v>
       </c>
       <c r="L4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -5184,12 +5186,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>4.488653224853145E-4</v>
+        <v>9.670802102524637E-6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5198,30 +5200,30 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>4.488653224853145E-4</v>
+        <v>3.1275875691518369E-4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.82905982905982911</v>
       </c>
       <c r="I6">
-        <v>0.99999517966571738</v>
+        <v>9.9711088218520458E-3</v>
       </c>
       <c r="J6">
-        <v>0.1428571428571429</v>
+        <v>0.65811965811965822</v>
       </c>
       <c r="K6">
-        <v>-6.1224489795918366E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.70940170940170943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5241,57 +5243,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
-        <v>17963.491559048332</v>
+        <v>135198.1807528327</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>8981.7457795241662</v>
+        <v>67599.090376416352</v>
       </c>
       <c r="E10">
-        <v>18.091710386686856</v>
+        <v>24.395149854515317</v>
       </c>
       <c r="F10">
-        <v>6.1619412748581604E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.3069358221642704E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
-        <v>8439.7591487132449</v>
+        <v>119153.22937226755</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>496.45642051254384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2771.0053342387805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
-        <v>26403.250707761577</v>
+        <v>254351.41012510026</v>
       </c>
       <c r="C12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5310,19 +5312,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-93.813799666654575</v>
+        <v>-182.33185075952923</v>
       </c>
       <c r="D16">
-        <v>-63.260763142857236</v>
+        <v>-126.92217282051286</v>
       </c>
       <c r="E16">
-        <v>-32.707726619059898</v>
+        <v>-71.512494881496465</v>
       </c>
       <c r="F16">
-        <v>1.615315120682137E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.6964777494773458E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5330,19 +5332,19 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-32.73758694173204</v>
+        <v>-59.257987408183936</v>
       </c>
       <c r="D17">
-        <v>-0.93697828571411179</v>
+        <v>-9.3123786666665893</v>
       </c>
       <c r="E17">
-        <v>30.863630370303817</v>
+        <v>40.633230074850758</v>
       </c>
       <c r="F17">
-        <v>0.99685569528648177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.89351651799291665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5350,24 +5352,24 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>30.523176201125196</v>
+        <v>73.605933435250819</v>
       </c>
       <c r="D18">
-        <v>62.323784857143124</v>
+        <v>117.60979415384628</v>
       </c>
       <c r="E18">
-        <v>94.124393513161053</v>
+        <v>161.61365487244174</v>
       </c>
       <c r="F18">
-        <v>2.8968863959788482E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.1296171992535307E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5387,57 +5389,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>289236288342.3244</v>
+        <v>24034948488.714642</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>144618144171.1622</v>
+        <v>12017474244.357321</v>
       </c>
       <c r="E22">
-        <v>36.185666330194373</v>
+        <v>12.822862146015577</v>
       </c>
       <c r="F22">
-        <v>7.4753381515622347E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.2892535911526279E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>67941500053.525513</v>
+        <v>40299223888.009583</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>3996558826.6779714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>937191253.20952523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>357177788395.84991</v>
+        <v>64334172376.724228</v>
       </c>
       <c r="C24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5456,19 +5458,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>149480.84166149556</v>
+        <v>34880.321544826787</v>
       </c>
       <c r="D28">
-        <v>236168.42947153654</v>
+        <v>67104.440964130961</v>
       </c>
       <c r="E28">
-        <v>322856.01728157751</v>
+        <v>99328.560383435135</v>
       </c>
       <c r="F28">
-        <v>6.2477710582875545E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.485290568643439E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5476,19 +5478,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>-121763.19639859103</v>
+        <v>7850.8226663400419</v>
       </c>
       <c r="D29">
-        <v>-31535.89433864248</v>
+        <v>36897.251384584059</v>
       </c>
       <c r="E29">
-        <v>58691.407721306066</v>
+        <v>65943.680102828075</v>
       </c>
       <c r="F29">
-        <v>0.64965073670167106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.7827613466153762E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5496,24 +5498,24 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-357931.62587012758</v>
+        <v>-55798.128120411115</v>
       </c>
       <c r="D30">
-        <v>-267704.32381017902</v>
+        <v>-30207.189579546903</v>
       </c>
       <c r="E30">
-        <v>-177477.02175023046</v>
+        <v>-4616.2510386826871</v>
       </c>
       <c r="F30">
-        <v>2.0527594930541682E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.7303748447174527E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -5533,57 +5535,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34">
-        <v>93.853829226532</v>
+        <v>126.10694411427166</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>46.926914613266</v>
+        <v>63.053472057135828</v>
       </c>
       <c r="E34">
-        <v>1.50097155507667</v>
+        <v>2.8742741135247045</v>
       </c>
       <c r="F34">
-        <v>0.25101648055296644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.7358984895593832E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
-        <v>531.49411507986395</v>
+        <v>943.29879175371718</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>31.264359710580234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21.93718120357482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36">
-        <v>625.3479443063959</v>
+        <v>1069.4057358679888</v>
       </c>
       <c r="C36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5602,19 +5604,19 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>-8.9842525762190935</v>
+        <v>-0.24582465114163909</v>
       </c>
       <c r="D40">
-        <v>-1.3170209612165173</v>
+        <v>4.6842938284588698</v>
       </c>
       <c r="E40">
-        <v>6.3502106537860588</v>
+        <v>9.6144123080593786</v>
       </c>
       <c r="F40">
-        <v>0.89911838620036455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.5595213808134822E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5622,19 +5624,19 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>-4.0670902277617964</v>
+        <v>-0.7704190121752692</v>
       </c>
       <c r="D41">
-        <v>3.9132174537295388</v>
+        <v>3.6735297309027803</v>
       </c>
       <c r="E41">
-        <v>11.893525135220873</v>
+        <v>8.1174784739808299</v>
       </c>
       <c r="F41">
-        <v>0.43697149160760929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.12279989996714125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5642,16 +5644,16 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>-2.7500692665452791</v>
+        <v>-4.9260412652249244</v>
       </c>
       <c r="D42">
-        <v>5.2302384149460561</v>
+        <v>-1.0107640975560894</v>
       </c>
       <c r="E42">
-        <v>13.21054609643739</v>
+        <v>2.904513070112746</v>
       </c>
       <c r="F42">
-        <v>0.24078863906859926</v>
+        <v>0.80634308448796177</v>
       </c>
     </row>
   </sheetData>
